--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1102740.074622998</v>
+        <v>1100361.150417995</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>201.6622187863186</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.652568600271</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.57983363107954</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>288.2822493900561</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>19.49168497188395</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>288.9312908991064</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>271.7754114124715</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.5522128412691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>24.12826114975326</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.4453883964245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.2615528838764</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>115.4526205097967</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>54.60584927464265</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>64.13206468856636</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856647</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.481771237980382</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0478889817946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>154.0869401039756</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>143.2091541404051</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.421048022936</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>41.02686156549778</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>11.79076481679217</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>160.5201563761521</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>135.5795121770518</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>32.05158559392623</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>26.13627195705732</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.92847288552876</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>178.2798710842924</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>212.3267021497095</v>
       </c>
     </row>
     <row r="41">
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>211.147499124903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>215.7213978539445</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>90.14863908058081</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>770.7703664058491</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>622.857272823456</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>475.9673253255456</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>308.2644887002646</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0473019181223</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.708680670284</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.746163729873</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.480465123122</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>768.692212524878</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>357.7063077352704</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734406</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955552</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.072590015141</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.80689140839</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101461</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>341.0327340205385</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4838,16 +4838,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019674</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.445961844415</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165081</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D10" t="n">
-        <v>199.3931395041724</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746548</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332895</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.954076332895</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.954076332895</v>
+        <v>1118.825349356468</v>
       </c>
       <c r="W13" t="n">
-        <v>931.5369062959339</v>
+        <v>1094.453368397121</v>
       </c>
       <c r="X13" t="n">
-        <v>931.5369062959339</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>866.4638174991042</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.4146797869508</v>
+        <v>675.661303923575</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>675.661303923575</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>525.5446645112393</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>377.6315709288461</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
@@ -5467,19 +5467,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V16" t="n">
-        <v>1151.480314654151</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W16" t="n">
-        <v>862.0631446171906</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X16" t="n">
-        <v>862.0631446171906</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="Y16" t="n">
-        <v>862.0631446171906</v>
+        <v>675.661303923575</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.81666304797189</v>
+        <v>459.6221006434207</v>
       </c>
       <c r="C19" t="n">
-        <v>93.81666304797189</v>
+        <v>290.6859177155138</v>
       </c>
       <c r="D19" t="n">
-        <v>93.81666304797189</v>
+        <v>290.6859177155138</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>290.6859177155138</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>140.7528025687997</v>
@@ -5701,22 +5701,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1375.775677988169</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>1086.700451332367</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V19" t="n">
-        <v>832.0159631264801</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W19" t="n">
-        <v>542.5987930895194</v>
+        <v>862.0631446171906</v>
       </c>
       <c r="X19" t="n">
-        <v>314.609242191502</v>
+        <v>862.0631446171906</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.81666304797189</v>
+        <v>641.2705654736604</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356204</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232847</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408915</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429812</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578612</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000592</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731412</v>
+        <v>1129.437033731431</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.84690539142</v>
+        <v>1546.84690539144</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100405</v>
+        <v>1916.376186100425</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673964</v>
+        <v>2209.051641673983</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400864</v>
+        <v>2328.249876400883</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.204172653266</v>
+        <v>2261.204172653285</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.204172653266</v>
+        <v>2251.626625948255</v>
       </c>
       <c r="T22" t="n">
-        <v>2261.204172653266</v>
+        <v>2251.626625948255</v>
       </c>
       <c r="U22" t="n">
-        <v>1972.128945997464</v>
+        <v>1962.551399292452</v>
       </c>
       <c r="V22" t="n">
-        <v>1717.444457791577</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W22" t="n">
-        <v>1717.444457791577</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X22" t="n">
-        <v>1489.45490689356</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093767</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="23">
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263528</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356212</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232855</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408923</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F25" t="n">
-        <v>484.811296842982</v>
+        <v>331.5467402424579</v>
       </c>
       <c r="G25" t="n">
-        <v>317.615197557862</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.90336640006</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2052.406834234633</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2052.406834234633</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028746</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991785</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093768</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093768</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536428</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>705.932442825736</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034134002</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310071</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.476105524079</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524079</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868277</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.71639066239</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.29922062543</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727412</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583882</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,7 +6540,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
         <v>280.8495004245706</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770305</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>155.0763917523266</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648818</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.7118147508</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072703</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.7594328861248</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041566</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2425.823211978716</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2242.968377633621</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2023.366912656562</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.29168600076</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.607197794873</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.190027757912</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>962.2004768598947</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.4078977163646</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7345,34 +7345,34 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1508.305175991783</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y40" t="n">
         <v>1280.315625093766</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.097755135313</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372932</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450255</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326898</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502967</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>408.6744289523863</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203172</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -9565,7 +9565,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042520628</v>
+        <v>58.59733042522555</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>262.3947371868377</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.13926495567031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>26.98526821475147</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.96842751313457</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922657</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182133</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>90.81519874828859</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922657</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>153.2733856387219</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>171.5445147636642</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5367643703002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11.43719818829325</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>74.19629618688316</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>139.9994244361468</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>205.6146855104978</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.726664722475732</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>186.5330677581733</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891666</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.44677382459292</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>73.85777223953556</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.257951202386266</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25837,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>36.41624546988353</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.8900140445861</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920300.3688706554</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957994.9369190455</v>
+        <v>957994.9369190463</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>963035.9097960528</v>
+        <v>963035.9097960531</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>963035.9097960528</v>
+        <v>963035.9097960531</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>963035.9097960531</v>
+        <v>963035.909796053</v>
       </c>
     </row>
   </sheetData>
@@ -26329,31 +26329,31 @@
         <v>450359.7549792567</v>
       </c>
       <c r="H2" t="n">
-        <v>462487.4349852687</v>
+        <v>462487.434985269</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217535</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217538</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
         <v>761.3882086835454</v>
       </c>
       <c r="H4" t="n">
-        <v>13705.58560400919</v>
+        <v>13705.58560400947</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>270568.3330065173</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="E6" t="n">
-        <v>23063.37513931037</v>
+        <v>22968.85660586441</v>
       </c>
       <c r="F6" t="n">
-        <v>348475.836946666</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="G6" t="n">
-        <v>348475.836946666</v>
+        <v>348381.3184132193</v>
       </c>
       <c r="H6" t="n">
-        <v>347659.3195573527</v>
+        <v>347617.5300674104</v>
       </c>
       <c r="I6" t="n">
-        <v>347550.1249909669</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="J6" t="n">
-        <v>130018.9225936895</v>
+        <v>129984.1846682537</v>
       </c>
       <c r="K6" t="n">
-        <v>347550.1249909668</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="L6" t="n">
-        <v>347550.1249909669</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="M6" t="n">
-        <v>262495.0970554549</v>
+        <v>262460.3591300193</v>
       </c>
       <c r="N6" t="n">
-        <v>347550.1249909668</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="O6" t="n">
-        <v>347550.1249909667</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="P6" t="n">
-        <v>347550.124990967</v>
+        <v>347515.387065531</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27436,13 +27436,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>147.5787499310944</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>223.078532078198</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>1.772586778758551</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>122.6394762633973</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>308.2605734982509</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.80255076437413</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>139.146314240982</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27910,13 +27910,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.8817498053001</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.26439296306545</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -30414,40 +30414,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>-9.426533627750662e-13</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649825</v>
@@ -36048,19 +36048,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168058</v>
+        <v>306.360096516825</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
